--- a/repn_results/results.xlsx
+++ b/repn_results/results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canli/euler/work/GETP/repn_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9976F3E2-6A3B-3C4A-A9E1-235C16D5AFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CD6BB-95E3-B045-9B08-FA3316CAEFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19400" xr2:uid="{488F6CB2-3ACC-A742-862D-D9F2908EEABD}"/>
+    <workbookView xWindow="38580" yWindow="2280" windowWidth="38400" windowHeight="19400" xr2:uid="{488F6CB2-3ACC-A742-862D-D9F2908EEABD}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
   <si>
     <t>Iter</t>
   </si>
@@ -143,12 +144,39 @@
   <si>
     <t>add 2 day no reserve</t>
   </si>
+  <si>
+    <t>start with 5 days</t>
+  </si>
+  <si>
+    <r>
+      <t>total load sheding cost ($10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +275,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,18 +698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D973636F-0931-464F-8D05-FFB35C34890D}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -689,7 +720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
@@ -765,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19">
+    <row r="4" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,7 +834,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19">
+    <row r="5" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
@@ -833,7 +864,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -841,7 +872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -872,7 +903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
@@ -900,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19">
+    <row r="15" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
@@ -926,7 +957,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19">
+    <row r="16" spans="1:15" ht="19" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
@@ -952,12 +983,12 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="19" spans="3:8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>0</v>
       </c>
@@ -975,7 +1006,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
@@ -993,7 +1024,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="3:8" ht="19">
+    <row r="22" spans="3:8" ht="19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1042,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="3:8" ht="19">
+    <row r="23" spans="3:8" ht="19" x14ac:dyDescent="0.2">
       <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1029,12 +1060,12 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="19">
+    <row r="29" spans="3:8" ht="19" x14ac:dyDescent="0.2">
       <c r="C29" s="5" t="s">
         <v>4</v>
       </c>
@@ -1085,7 +1116,7 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="19">
+    <row r="30" spans="3:8" ht="19" x14ac:dyDescent="0.2">
       <c r="C30" s="6" t="s">
         <v>5</v>
       </c>
@@ -1109,4 +1140,122 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6CF936-D9D4-C441-B406-39AFFB9ABA8D}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11.477</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12.84</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12.509</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12.584</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>54.625999999999998</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11">
+        <v>46.82</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f>F4+F5</f>
+        <v>67.209999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>